--- a/natmiOut/OldD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Icam1-Il2ra.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>54.3446437632756</v>
+        <v>163.9108346666667</v>
       </c>
       <c r="H2">
-        <v>54.3446437632756</v>
+        <v>491.732504</v>
       </c>
       <c r="I2">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348239</v>
       </c>
       <c r="J2">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348242</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.167722437872706</v>
+        <v>0.1743356666666667</v>
       </c>
       <c r="N2">
-        <v>0.167722437872706</v>
+        <v>0.523007</v>
       </c>
       <c r="O2">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="P2">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="Q2">
-        <v>9.11481613730033</v>
+        <v>28.57550463550311</v>
       </c>
       <c r="R2">
-        <v>9.11481613730033</v>
+        <v>257.179541719528</v>
       </c>
       <c r="S2">
-        <v>0.01432637786536454</v>
+        <v>0.01940688488583563</v>
       </c>
       <c r="T2">
-        <v>0.01432637786536454</v>
+        <v>0.01940688488583563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>54.3446437632756</v>
+        <v>163.9108346666667</v>
       </c>
       <c r="H3">
-        <v>54.3446437632756</v>
+        <v>491.732504</v>
       </c>
       <c r="I3">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348239</v>
       </c>
       <c r="J3">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348242</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.38782081358219</v>
+        <v>2.401382333333334</v>
       </c>
       <c r="N3">
-        <v>2.38782081358219</v>
+        <v>7.204147000000001</v>
       </c>
       <c r="O3">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="P3">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="Q3">
-        <v>129.765271484659</v>
+        <v>393.6125826104543</v>
       </c>
       <c r="R3">
-        <v>129.765271484659</v>
+        <v>3542.513243494088</v>
       </c>
       <c r="S3">
-        <v>0.2039609230824777</v>
+        <v>0.2673196563901403</v>
       </c>
       <c r="T3">
-        <v>0.2039609230824777</v>
+        <v>0.2673196563901403</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>54.3446437632756</v>
+        <v>163.9108346666667</v>
       </c>
       <c r="H4">
-        <v>54.3446437632756</v>
+        <v>491.732504</v>
       </c>
       <c r="I4">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348239</v>
       </c>
       <c r="J4">
-        <v>0.6410425897478329</v>
+        <v>0.8426759240348242</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.94930039731366</v>
+        <v>4.994197</v>
       </c>
       <c r="N4">
-        <v>4.94930039731366</v>
+        <v>14.982591</v>
       </c>
       <c r="O4">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="P4">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="Q4">
-        <v>268.9679669694493</v>
+        <v>818.6029987597626</v>
       </c>
       <c r="R4">
-        <v>268.9679669694493</v>
+        <v>7367.426988837864</v>
       </c>
       <c r="S4">
-        <v>0.4227552887999907</v>
+        <v>0.5559493827588481</v>
       </c>
       <c r="T4">
-        <v>0.4227552887999907</v>
+        <v>0.5559493827588482</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>29.1835632453676</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H5">
-        <v>29.1835632453676</v>
+        <v>88.060289</v>
       </c>
       <c r="I5">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="J5">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.167722437872706</v>
+        <v>0.1743356666666667</v>
       </c>
       <c r="N5">
-        <v>0.167722437872706</v>
+        <v>0.523007</v>
       </c>
       <c r="O5">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="P5">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="Q5">
-        <v>4.894738373325354</v>
+        <v>5.117349729891444</v>
       </c>
       <c r="R5">
-        <v>4.894738373325354</v>
+        <v>46.056147569023</v>
       </c>
       <c r="S5">
-        <v>0.007693393967805079</v>
+        <v>0.003475417788604061</v>
       </c>
       <c r="T5">
-        <v>0.007693393967805079</v>
+        <v>0.003475417788604061</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>29.1835632453676</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H6">
-        <v>29.1835632453676</v>
+        <v>88.060289</v>
       </c>
       <c r="I6">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="J6">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.38782081358219</v>
+        <v>2.401382333333334</v>
       </c>
       <c r="N6">
-        <v>2.38782081358219</v>
+        <v>7.204147000000001</v>
       </c>
       <c r="O6">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="P6">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="Q6">
-        <v>69.68511973178097</v>
+        <v>70.4888074242759</v>
       </c>
       <c r="R6">
-        <v>69.68511973178097</v>
+        <v>634.3992668184831</v>
       </c>
       <c r="S6">
-        <v>0.1095288530050762</v>
+        <v>0.04787205646486296</v>
       </c>
       <c r="T6">
-        <v>0.1095288530050762</v>
+        <v>0.04787205646486296</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>29.1835632453676</v>
+        <v>29.35342966666667</v>
       </c>
       <c r="H7">
-        <v>29.1835632453676</v>
+        <v>88.060289</v>
       </c>
       <c r="I7">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="J7">
-        <v>0.3442456452998655</v>
+        <v>0.1509078305790594</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.94930039731366</v>
+        <v>4.994197</v>
       </c>
       <c r="N7">
-        <v>4.94930039731366</v>
+        <v>14.982591</v>
       </c>
       <c r="O7">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="P7">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="Q7">
-        <v>144.4382211653262</v>
+        <v>146.5968103809777</v>
       </c>
       <c r="R7">
-        <v>144.4382211653262</v>
+        <v>1319.371293428799</v>
       </c>
       <c r="S7">
-        <v>0.2270233983269842</v>
+        <v>0.09956035632559239</v>
       </c>
       <c r="T7">
-        <v>0.2270233983269842</v>
+        <v>0.09956035632559239</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.24719579985533</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H8">
-        <v>1.24719579985533</v>
+        <v>3.744116</v>
       </c>
       <c r="I8">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="J8">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.167722437872706</v>
+        <v>0.1743356666666667</v>
       </c>
       <c r="N8">
-        <v>0.167722437872706</v>
+        <v>0.523007</v>
       </c>
       <c r="O8">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="P8">
-        <v>0.02234855857393205</v>
+        <v>0.02303006925000699</v>
       </c>
       <c r="Q8">
-        <v>0.2091827200563355</v>
+        <v>0.2175776529791111</v>
       </c>
       <c r="R8">
-        <v>0.2091827200563355</v>
+        <v>1.958198876812</v>
       </c>
       <c r="S8">
-        <v>0.0003287867407624358</v>
+        <v>0.0001477665755673034</v>
       </c>
       <c r="T8">
-        <v>0.0003287867407624358</v>
+        <v>0.0001477665755673035</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.24719579985533</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H9">
-        <v>1.24719579985533</v>
+        <v>3.744116</v>
       </c>
       <c r="I9">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="J9">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.38782081358219</v>
+        <v>2.401382333333334</v>
       </c>
       <c r="N9">
-        <v>2.38782081358219</v>
+        <v>7.204147000000001</v>
       </c>
       <c r="O9">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="P9">
-        <v>0.318170627575166</v>
+        <v>0.3172271198994089</v>
       </c>
       <c r="Q9">
-        <v>2.978080089506844</v>
+        <v>2.997018005450223</v>
       </c>
       <c r="R9">
-        <v>2.978080089506844</v>
+        <v>26.973162049052</v>
       </c>
       <c r="S9">
-        <v>0.004680851487612172</v>
+        <v>0.002035407044405644</v>
       </c>
       <c r="T9">
-        <v>0.004680851487612172</v>
+        <v>0.002035407044405644</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.24719579985533</v>
+        <v>1.248038666666667</v>
       </c>
       <c r="H10">
-        <v>1.24719579985533</v>
+        <v>3.744116</v>
       </c>
       <c r="I10">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="J10">
-        <v>0.01471176495230173</v>
+        <v>0.006416245386116614</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.94930039731366</v>
+        <v>4.994197</v>
       </c>
       <c r="N10">
-        <v>4.94930039731366</v>
+        <v>14.982591</v>
       </c>
       <c r="O10">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="P10">
-        <v>0.659480813850902</v>
+        <v>0.6597428108505842</v>
       </c>
       <c r="Q10">
-        <v>6.172746667751913</v>
+        <v>6.232950964950667</v>
       </c>
       <c r="R10">
-        <v>6.172746667751913</v>
+        <v>56.09655868455599</v>
       </c>
       <c r="S10">
-        <v>0.00970212672392712</v>
+        <v>0.004233071766143666</v>
       </c>
       <c r="T10">
-        <v>0.00970212672392712</v>
+        <v>0.004233071766143667</v>
       </c>
     </row>
   </sheetData>
